--- a/resultados_partidos1.xlsx
+++ b/resultados_partidos1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>canal</t>
   </si>
@@ -28,19 +28,10 @@
     <t>GOLPERU HD 2021-10-01 10:30:00</t>
   </si>
   <si>
-    <t>GOLPERU HD 2021-10-01 13:00:00</t>
-  </si>
-  <si>
     <t>12.458</t>
   </si>
   <si>
-    <t>24.799</t>
-  </si>
-  <si>
     <t>11.712h 29m</t>
-  </si>
-  <si>
-    <t>20.309h 39m</t>
   </si>
 </sst>
 </file>
@@ -398,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,21 +411,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/resultados_partidos1.xlsx
+++ b/resultados_partidos1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>canal</t>
   </si>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>GOLPERU HD 2021-10-01 10:30:00</t>
-  </si>
-  <si>
-    <t>12.458</t>
-  </si>
-  <si>
-    <t>11.712h 29m</t>
   </si>
 </sst>
 </file>
@@ -410,11 +404,11 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="B2">
+        <v>12458</v>
+      </c>
+      <c r="C2">
+        <v>11712.48333333333</v>
       </c>
     </row>
   </sheetData>

--- a/resultados_partidos1.xlsx
+++ b/resultados_partidos1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>canal</t>
   </si>
@@ -25,7 +25,55 @@
     <t>hours</t>
   </si>
   <si>
-    <t>GOLPERU HD 2021-10-01 10:30:00</t>
+    <t>GOLPERU HD 2021-11-28 15:00:00</t>
+  </si>
+  <si>
+    <t>ESPN HD 2021-11-27 7:30:00</t>
+  </si>
+  <si>
+    <t>ESPN 2 2021-11-27 12:00:00</t>
+  </si>
+  <si>
+    <t>ESPN HD 2021-11-27 15:00:00</t>
+  </si>
+  <si>
+    <t>ESPN HD 2021-11-28 9:00:00</t>
+  </si>
+  <si>
+    <t>ESPN 2 2021-11-28 9:00:00</t>
+  </si>
+  <si>
+    <t>ESPN HD 2021-11-28 11:30:00</t>
+  </si>
+  <si>
+    <t>ESPN 3 HD 2021-11-28 14:45:00</t>
+  </si>
+  <si>
+    <t>ESPN 2 2021-11-28 15:00:00</t>
+  </si>
+  <si>
+    <t>ESPN HD 2021-11-28 15:00:00</t>
+  </si>
+  <si>
+    <t>ESPN HD 2021-11-28 19:30:00</t>
+  </si>
+  <si>
+    <t>ESPN HD 2021-11-30 14:45:00</t>
+  </si>
+  <si>
+    <t>ESPN HD 2021-12-01 12:30:00</t>
+  </si>
+  <si>
+    <t>ESPN 2 2021-12-01 15:00:00</t>
+  </si>
+  <si>
+    <t>ESPN HD 2021-12-01 15:00:00</t>
+  </si>
+  <si>
+    <t>ESPN HD 2021-12-02 15:15:00</t>
+  </si>
+  <si>
+    <t>ESPN 2 2021-12-02 14:30:00</t>
   </si>
 </sst>
 </file>
@@ -383,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,10 +453,186 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>12458</v>
+        <v>188193</v>
       </c>
       <c r="C2">
-        <v>11712.48333333333</v>
+        <v>223032.7166666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>6710</v>
+      </c>
+      <c r="C3">
+        <v>4891.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>10969</v>
+      </c>
+      <c r="C4">
+        <v>7209.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>44507</v>
+      </c>
+      <c r="C5">
+        <v>45025.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>11256</v>
+      </c>
+      <c r="C6">
+        <v>8627.583333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>8055</v>
+      </c>
+      <c r="C7">
+        <v>3161.483333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>34616</v>
+      </c>
+      <c r="C8">
+        <v>27246.13333333334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>4857</v>
+      </c>
+      <c r="C9">
+        <v>427.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>11939</v>
+      </c>
+      <c r="C10">
+        <v>4062.166666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>9840</v>
+      </c>
+      <c r="C11">
+        <v>308.6833333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>7095</v>
+      </c>
+      <c r="C12">
+        <v>1144.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>7887</v>
+      </c>
+      <c r="C13">
+        <v>3646.783333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>8911</v>
+      </c>
+      <c r="C14">
+        <v>5918.383333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>14168</v>
+      </c>
+      <c r="C15">
+        <v>7736.783333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>20656</v>
+      </c>
+      <c r="C16">
+        <v>13778.38333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>24328</v>
+      </c>
+      <c r="C17">
+        <v>19501.03333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>7725</v>
+      </c>
+      <c r="C18">
+        <v>2889.766666666667</v>
       </c>
     </row>
   </sheetData>
